--- a/clustered_dataset.xlsx
+++ b/clustered_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J102"/>
+  <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,10 +471,15 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>pengeluaran_ewallet_sebulan</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>tingkat_konsumerisme</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cluster</t>
         </is>
@@ -521,10 +526,15 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>Rp500.000 - Rp1.000.000</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>Netral</t>
         </is>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -569,11 +579,16 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
+          <t>Rp500.000 - Rp1.000.000</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -617,10 +632,15 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>Rp0 - Rp500.000</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>Netral</t>
         </is>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -665,11 +685,16 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
+          <t>Rp500.000 - Rp1.000.000</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -713,11 +738,16 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
+          <t>Rp1.000.000 - Rp3.000.000</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>Netral</t>
         </is>
       </c>
-      <c r="J6" t="n">
-        <v>3</v>
+      <c r="K6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -761,11 +791,16 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
-        <v>3</v>
+          <t>Rp500.000 - Rp1.000.000</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -809,10 +844,15 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>Rp0 - Rp500.000</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>Netral</t>
         </is>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>2</v>
       </c>
     </row>
@@ -857,11 +897,16 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>Rp500.000 - Rp1.000.000</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>Tinggi</t>
         </is>
       </c>
-      <c r="J9" t="n">
-        <v>3</v>
+      <c r="K9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -905,11 +950,16 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>Rp1.000.000 - Rp3.000.000</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>Netral</t>
         </is>
       </c>
-      <c r="J10" t="n">
-        <v>3</v>
+      <c r="K10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -953,10 +1003,15 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J11" t="n">
+          <t>Rp500.000 - Rp1.000.000</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1001,11 +1056,16 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
+          <t>Rp0 - Rp500.000</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1049,10 +1109,15 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
+          <t>Rp0 - Rp500.000</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>Netral</t>
         </is>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1097,11 +1162,16 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J14" t="n">
-        <v>3</v>
+          <t>Rp0 - Rp500.000</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1145,11 +1215,16 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
+          <t>Rp500.000 - Rp1.000.000</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>Netral</t>
         </is>
       </c>
-      <c r="J15" t="n">
-        <v>1</v>
+      <c r="K15" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1193,11 +1268,16 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
+          <t>Rp500.000 - Rp1.000.000</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -1241,11 +1321,16 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
+          <t>Rp500.000 - Rp1.000.000</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -1289,11 +1374,16 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
+          <t>Rp0 - Rp500.000</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
           <t>Netral</t>
         </is>
       </c>
-      <c r="J18" t="n">
-        <v>3</v>
+      <c r="K18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1337,11 +1427,16 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J19" t="n">
-        <v>1</v>
+          <t>Rp500.000 - Rp1.000.000</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1385,11 +1480,16 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
+          <t>Rp3.000.000 - Rp5.000.000</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
           <t>Netral</t>
         </is>
       </c>
-      <c r="J20" t="n">
-        <v>3</v>
+      <c r="K20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1433,10 +1533,15 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
+          <t>Rp0 - Rp500.000</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
           <t>Netral</t>
         </is>
       </c>
-      <c r="J21" t="n">
+      <c r="K21" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1481,10 +1586,15 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
+          <t>Rp500.000 - Rp1.000.000</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
           <t>Netral</t>
         </is>
       </c>
-      <c r="J22" t="n">
+      <c r="K22" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1529,11 +1639,16 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
+          <t>Rp1.000.000 - Rp3.000.000</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
           <t>Netral</t>
         </is>
       </c>
-      <c r="J23" t="n">
-        <v>1</v>
+      <c r="K23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -1577,10 +1692,15 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
+          <t>Rp1.000.000 - Rp3.000.000</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
           <t>Netral</t>
         </is>
       </c>
-      <c r="J24" t="n">
+      <c r="K24" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1625,11 +1745,16 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J25" t="n">
-        <v>1</v>
+          <t>Rp0 - Rp500.000</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1673,11 +1798,16 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J26" t="n">
-        <v>1</v>
+          <t>Rp1.000.000 - Rp3.000.000</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -1721,11 +1851,16 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J27" t="n">
-        <v>1</v>
+          <t>Rp500.000 - Rp1.000.000</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -1769,10 +1904,15 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
+          <t>Rp1.000.000 - Rp3.000.000</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
           <t>Netral</t>
         </is>
       </c>
-      <c r="J28" t="n">
+      <c r="K28" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1817,11 +1957,16 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J29" t="n">
-        <v>1</v>
+          <t>Rp500.000 - Rp1.000.000</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -1865,11 +2010,16 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J30" t="n">
-        <v>1</v>
+          <t>Rp500.000 - Rp1.000.000</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -1913,11 +2063,16 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J31" t="n">
-        <v>1</v>
+          <t>Rp0 - Rp500.000</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -1961,10 +2116,15 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
+          <t>Rp500.000 - Rp1.000.000</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
           <t>Netral</t>
         </is>
       </c>
-      <c r="J32" t="n">
+      <c r="K32" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2009,10 +2169,15 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
+          <t>Rp1.000.000 - Rp3.000.000</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
           <t>Netral</t>
         </is>
       </c>
-      <c r="J33" t="n">
+      <c r="K33" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2057,11 +2222,16 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J34" t="n">
-        <v>3</v>
+          <t>Rp500.000 - Rp1.000.000</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -2105,11 +2275,16 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J35" t="n">
-        <v>1</v>
+          <t>Rp500.000 - Rp1.000.000</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -2153,11 +2328,16 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J36" t="n">
-        <v>1</v>
+          <t>Rp500.000 - Rp1.000.000</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -2201,10 +2381,15 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J37" t="n">
+          <t>&gt;Rp5.000.000</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2249,11 +2434,16 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
+          <t>Rp0 - Rp500.000</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
           <t>Netral</t>
         </is>
       </c>
-      <c r="J38" t="n">
-        <v>1</v>
+      <c r="K38" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -2297,10 +2487,15 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J39" t="n">
+          <t>Rp0 - Rp500.000</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2345,10 +2540,15 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J40" t="n">
+          <t>Rp1.000.000 - Rp3.000.000</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2393,11 +2593,16 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J41" t="n">
-        <v>1</v>
+          <t>Rp0 - Rp500.000</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -2441,11 +2646,16 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J42" t="n">
-        <v>3</v>
+          <t>Rp0 - Rp500.000</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -2489,11 +2699,16 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
+          <t>Rp3.000.000 - Rp5.000.000</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
           <t>Netral</t>
         </is>
       </c>
-      <c r="J43" t="n">
-        <v>1</v>
+      <c r="K43" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -2537,11 +2752,16 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
+          <t>Rp500.000 - Rp1.000.000</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
           <t>Netral</t>
         </is>
       </c>
-      <c r="J44" t="n">
-        <v>3</v>
+      <c r="K44" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -2585,11 +2805,16 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J45" t="n">
-        <v>1</v>
+          <t>Rp500.000 - Rp1.000.000</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2633,11 +2858,16 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
+          <t>Rp500.000 - Rp1.000.000</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
           <t>Netral</t>
         </is>
       </c>
-      <c r="J46" t="n">
-        <v>1</v>
+      <c r="K46" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -2681,11 +2911,16 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J47" t="n">
-        <v>3</v>
+          <t>Rp500.000 - Rp1.000.000</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2729,11 +2964,16 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J48" t="n">
-        <v>1</v>
+          <t>Rp0 - Rp500.000</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -2777,11 +3017,16 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
+          <t>Rp1.000.000 - Rp3.000.000</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
           <t>Netral</t>
         </is>
       </c>
-      <c r="J49" t="n">
-        <v>1</v>
+      <c r="K49" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -2825,11 +3070,16 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J50" t="n">
-        <v>1</v>
+          <t>Rp1.000.000 - Rp3.000.000</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -2873,11 +3123,16 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J51" t="n">
-        <v>3</v>
+          <t>Rp500.000 - Rp1.000.000</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2921,11 +3176,16 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J52" t="n">
-        <v>3</v>
+          <t>Rp500.000 - Rp1.000.000</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2969,11 +3229,16 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J53" t="n">
-        <v>3</v>
+          <t>Rp0 - Rp500.000</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -3017,11 +3282,16 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J54" t="n">
-        <v>1</v>
+          <t>Rp1.000.000 - Rp3.000.000</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="55">
@@ -3065,11 +3335,16 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J55" t="n">
-        <v>3</v>
+          <t>Rp0 - Rp500.000</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -3113,10 +3388,15 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
+          <t>Rp0 - Rp500.000</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
           <t>Netral</t>
         </is>
       </c>
-      <c r="J56" t="n">
+      <c r="K56" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3161,10 +3441,15 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
+          <t>Rp0 - Rp500.000</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
           <t>Netral</t>
         </is>
       </c>
-      <c r="J57" t="n">
+      <c r="K57" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3209,11 +3494,16 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J58" t="n">
-        <v>3</v>
+          <t>Rp0 - Rp500.000</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -3257,10 +3547,15 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
+          <t>Rp1.000.000 - Rp3.000.000</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
           <t>Netral</t>
         </is>
       </c>
-      <c r="J59" t="n">
+      <c r="K59" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3305,11 +3600,16 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J60" t="n">
-        <v>1</v>
+          <t>Rp500.000 - Rp1.000.000</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="61">
@@ -3353,11 +3653,16 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
+          <t>Rp0 - Rp500.000</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
           <t>Netral</t>
         </is>
       </c>
-      <c r="J61" t="n">
-        <v>1</v>
+      <c r="K61" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -3401,11 +3706,16 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
+          <t>Rp1.000.000 - Rp3.000.000</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
           <t>Netral</t>
         </is>
       </c>
-      <c r="J62" t="n">
-        <v>3</v>
+      <c r="K62" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -3449,11 +3759,16 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J63" t="n">
-        <v>1</v>
+          <t>Rp1.000.000 - Rp3.000.000</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -3497,11 +3812,16 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J64" t="n">
-        <v>3</v>
+          <t>Rp1.000.000 - Rp3.000.000</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -3545,11 +3865,16 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J65" t="n">
-        <v>1</v>
+          <t>Rp500.000 - Rp1.000.000</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="66">
@@ -3593,11 +3918,16 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
+          <t>Rp500.000 - Rp1.000.000</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
           <t>Netral</t>
         </is>
       </c>
-      <c r="J66" t="n">
-        <v>1</v>
+      <c r="K66" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="67">
@@ -3641,11 +3971,16 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J67" t="n">
-        <v>3</v>
+          <t>Rp1.000.000 - Rp3.000.000</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -3689,11 +4024,16 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J68" t="n">
-        <v>1</v>
+          <t>Rp1.000.000 - Rp3.000.000</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="69">
@@ -3737,11 +4077,16 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J69" t="n">
-        <v>1</v>
+          <t>Rp1.000.000 - Rp3.000.000</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70">
@@ -3785,11 +4130,16 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J70" t="n">
-        <v>3</v>
+          <t>Rp0 - Rp500.000</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -3833,11 +4183,16 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J71" t="n">
-        <v>3</v>
+          <t>Rp0 - Rp500.000</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -3881,11 +4236,16 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J72" t="n">
-        <v>3</v>
+          <t>Rp0 - Rp500.000</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -3929,11 +4289,16 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
+          <t>Rp1.000.000 - Rp3.000.000</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
           <t>Netral</t>
         </is>
       </c>
-      <c r="J73" t="n">
-        <v>3</v>
+      <c r="K73" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -3977,11 +4342,16 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J74" t="n">
-        <v>3</v>
+          <t>Rp500.000 - Rp1.000.000</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -4025,10 +4395,15 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
+          <t>Rp500.000 - Rp1.000.000</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
           <t>Netral</t>
         </is>
       </c>
-      <c r="J75" t="n">
+      <c r="K75" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4073,11 +4448,16 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J76" t="n">
-        <v>1</v>
+          <t>Rp0 - Rp500.000</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="77">
@@ -4121,11 +4501,16 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
+          <t>Rp1.000.000 - Rp3.000.000</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
           <t>Tinggi</t>
         </is>
       </c>
-      <c r="J77" t="n">
-        <v>3</v>
+      <c r="K77" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -4169,11 +4554,16 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
+          <t>Rp0 - Rp500.000</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
           <t>Netral</t>
         </is>
       </c>
-      <c r="J78" t="n">
-        <v>1</v>
+      <c r="K78" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="79">
@@ -4217,11 +4607,16 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J79" t="n">
-        <v>3</v>
+          <t>Rp500.000 - Rp1.000.000</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -4265,10 +4660,15 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
+          <t>Rp1.000.000 - Rp3.000.000</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
           <t>Netral</t>
         </is>
       </c>
-      <c r="J80" t="n">
+      <c r="K80" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4313,10 +4713,15 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
+          <t>Rp0 - Rp500.000</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
           <t>Netral</t>
         </is>
       </c>
-      <c r="J81" t="n">
+      <c r="K81" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4361,11 +4766,16 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J82" t="n">
-        <v>1</v>
+          <t>Rp1.000.000 - Rp3.000.000</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="83">
@@ -4409,10 +4819,15 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
+          <t>Rp500.000 - Rp1.000.000</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
           <t>Netral</t>
         </is>
       </c>
-      <c r="J83" t="n">
+      <c r="K83" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4457,11 +4872,16 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J84" t="n">
-        <v>3</v>
+          <t>Rp500.000 - Rp1.000.000</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -4505,11 +4925,16 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J85" t="n">
-        <v>1</v>
+          <t>Rp1.000.000 - Rp3.000.000</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="86">
@@ -4553,11 +4978,16 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
+          <t>Rp1.000.000 - Rp3.000.000</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
           <t>Netral</t>
         </is>
       </c>
-      <c r="J86" t="n">
-        <v>3</v>
+      <c r="K86" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -4601,11 +5031,16 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J87" t="n">
-        <v>1</v>
+          <t>Rp0 - Rp500.000</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="88">
@@ -4649,11 +5084,16 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J88" t="n">
-        <v>3</v>
+          <t>Rp1.000.000 - Rp3.000.000</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -4697,11 +5137,16 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J89" t="n">
-        <v>1</v>
+          <t>Rp1.000.000 - Rp3.000.000</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="90">
@@ -4745,11 +5190,16 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J90" t="n">
-        <v>3</v>
+          <t>Rp500.000 - Rp1.000.000</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -4793,10 +5243,15 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J91" t="n">
+          <t>Rp3.000.000 - Rp5.000.000</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4841,11 +5296,16 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J92" t="n">
-        <v>3</v>
+          <t>Rp1.000.000 - Rp3.000.000</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -4889,11 +5349,16 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J93" t="n">
-        <v>1</v>
+          <t>Rp1.000.000 - Rp3.000.000</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="94">
@@ -4937,10 +5402,15 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J94" t="n">
+          <t>Rp1.000.000 - Rp3.000.000</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4985,10 +5455,15 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
+          <t>Rp3.000.000 - Rp5.000.000</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
           <t>Netral</t>
         </is>
       </c>
-      <c r="J95" t="n">
+      <c r="K95" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5033,10 +5508,15 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
+          <t>Rp1.000.000 - Rp3.000.000</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
           <t>Netral</t>
         </is>
       </c>
-      <c r="J96" t="n">
+      <c r="K96" t="n">
         <v>2</v>
       </c>
     </row>
@@ -5081,11 +5561,16 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J97" t="n">
-        <v>3</v>
+          <t>Rp500.000 - Rp1.000.000</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -5129,11 +5614,16 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J98" t="n">
-        <v>3</v>
+          <t>Rp500.000 - Rp1.000.000</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -5177,11 +5667,16 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
+          <t>Rp3.000.000 - Rp5.000.000</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
           <t>Netral</t>
         </is>
       </c>
-      <c r="J99" t="n">
-        <v>3</v>
+      <c r="K99" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -5225,11 +5720,16 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J100" t="n">
-        <v>3</v>
+          <t>Rp500.000 - Rp1.000.000</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -5273,11 +5773,16 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J101" t="n">
-        <v>1</v>
+          <t>Rp500.000 - Rp1.000.000</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="102">
@@ -5321,11 +5826,16 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>Rendah</t>
-        </is>
-      </c>
-      <c r="J102" t="n">
-        <v>1</v>
+          <t>Rp3.000.000 - Rp5.000.000</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>Rendah</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
